--- a/GDP_Report.xlsx
+++ b/GDP_Report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GDP By Country" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GDP By Country" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="$* #,##0" numFmtId="164"/>
-    <numFmt formatCode="$* #,##0.00" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="$* #,##0"/>
+    <numFmt numFmtId="165" formatCode="$* #,##0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -51,22 +51,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -435,11 +435,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="20"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>19485394000000</v>
+        <v>25462700000000</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>325084756</v>
+        <v>338289857</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>59939.42699669375</v>
+        <v>75268.88398548703</v>
       </c>
     </row>
     <row r="3">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>12237700479375</v>
+        <v>17963200000000</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>1421021791</v>
+        <v>1425887337</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>8611.902053073441</v>
+        <v>12597.90976038383</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>4872415104315</v>
+        <v>4231140000000</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>127502725</v>
+        <v>123951692</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>38214.20369105837</v>
+        <v>34135.39526350314</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3693204332230</v>
+        <v>4072190000000</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>82658409</v>
+        <v>83369843</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>44680.32202543361</v>
+        <v>48844.88027643281</v>
       </c>
     </row>
     <row r="6">
@@ -555,16 +555,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2650725335364</v>
+        <v>3385090000000</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1338676785</v>
+        <v>1417173173</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1980.108540811067</v>
+        <v>2388.621281077552</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/GDP_Report.xlsx
+++ b/GDP_Report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GDP By Country" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GDP By Country" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="$* #,##0"/>
-    <numFmt numFmtId="165" formatCode="$* #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_($* #,##0_);_($* (#,##0);_($* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -30,6 +30,7 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="16"/>
     </font>
   </fonts>
@@ -55,13 +56,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,7 +440,7 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,17 +449,17 @@
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>GDP</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Population</t>
         </is>
@@ -470,7 +471,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,18 +479,18 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>25462700000000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>338289857</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>75268.88398548703</v>
+        <v>75268883.98999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,18 +498,18 @@
           <t>China</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>17963200000000</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>1425887337</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>12597.90976038383</v>
+        <v>12597909.76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -516,18 +517,18 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>4231140000000</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>123951692</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>34135.39526350314</v>
+        <v>34135395.26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,18 +536,18 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>4072190000000</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>83369843</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>48844.88027643281</v>
+        <v>48844880.28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -554,14 +555,14 @@
           <t>India</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>3385090000000</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>1417173173</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>2388.621281077552</v>
+        <v>2388621.28</v>
       </c>
     </row>
   </sheetData>
